--- a/output_validation/04_pin_factor_secondary.xlsx
+++ b/output_validation/04_pin_factor_secondary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
   <si>
     <t>admin1</t>
   </si>
@@ -31,31 +31,28 @@
     <t>TotN</t>
   </si>
   <si>
-    <t>% 1-2</t>
-  </si>
-  <si>
-    <t># 1-2</t>
-  </si>
-  <si>
-    <t>% 3</t>
-  </si>
-  <si>
-    <t># 3</t>
-  </si>
-  <si>
-    <t>% 4</t>
-  </si>
-  <si>
-    <t># 4</t>
-  </si>
-  <si>
-    <t>% 5</t>
-  </si>
-  <si>
-    <t># 5</t>
-  </si>
-  <si>
-    <t>Category</t>
+    <t>% severity levels 1-2</t>
+  </si>
+  <si>
+    <t># severity levels 1-2</t>
+  </si>
+  <si>
+    <t>% severity level 3</t>
+  </si>
+  <si>
+    <t># severity level 3</t>
+  </si>
+  <si>
+    <t>% severity level 4</t>
+  </si>
+  <si>
+    <t># severity level 4</t>
+  </si>
+  <si>
+    <t>% severity level 5</t>
+  </si>
+  <si>
+    <t># severity level 5</t>
   </si>
   <si>
     <t>MMR001</t>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>secondary</t>
   </si>
   <si>
     <t>idp</t>
@@ -482,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,19 +519,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>21721.59230769231</v>
@@ -566,19 +557,16 @@
       <c r="L2">
         <v>143.3314575446645</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>11373.27692307692</v>
@@ -607,19 +595,16 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>16407.78461538461</v>
@@ -648,19 +633,16 @@
       <c r="L4">
         <v>73.24590147638997</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>18313.13076923077</v>
@@ -689,19 +671,16 @@
       <c r="L5">
         <v>202.3088210632179</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>47708.44615384615</v>
@@ -730,19 +709,16 @@
       <c r="L6">
         <v>233.2096236636413</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>65590.43076923076</v>
@@ -771,19 +747,16 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>26338.2</v>
@@ -812,19 +785,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>19010.81538461538</v>
@@ -853,19 +823,16 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>17992.96153846154</v>
@@ -894,19 +861,16 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>108372.1153846154</v>
@@ -935,19 +899,16 @@
       <c r="L11">
         <v>779.6575204049783</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>21637.59230769231</v>
@@ -976,19 +937,16 @@
       <c r="L12">
         <v>1744.93644565298</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>23858.58461538462</v>
@@ -1017,19 +975,16 @@
       <c r="L13">
         <v>94.13696877189406</v>
       </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>21703.82307692308</v>
@@ -1058,19 +1013,16 @@
       <c r="L14">
         <v>93.06851277073478</v>
       </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>55387.98461538462</v>
@@ -1099,19 +1051,16 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>40055.4</v>
@@ -1140,19 +1089,16 @@
       <c r="L16">
         <v>234.9788238486647</v>
       </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>16329.27692307692</v>
@@ -1181,19 +1127,16 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>18886.26923076923</v>
@@ -1222,19 +1165,16 @@
       <c r="L18">
         <v>111.59075655012</v>
       </c>
-      <c r="M18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>19678.93846153846</v>
@@ -1262,9 +1202,6 @@
       </c>
       <c r="L19">
         <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1274,13 +1211,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,19 +1254,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>3103.084615384616</v>
@@ -1358,19 +1292,16 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>1624.753846153846</v>
@@ -1399,19 +1330,16 @@
       <c r="L3">
         <v>77.29400974805274</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>2343.969230769231</v>
@@ -1440,19 +1368,16 @@
       <c r="L4">
         <v>92.83375497548529</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>2616.161538461539</v>
@@ -1481,19 +1406,16 @@
       <c r="L5">
         <v>17.34744802913313</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>6815.492307692309</v>
@@ -1522,19 +1444,16 @@
       <c r="L6">
         <v>597.748802371627</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>9370.061538461541</v>
@@ -1563,19 +1482,16 @@
       <c r="L7">
         <v>277.0566426421958</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>3762.6</v>
@@ -1604,19 +1520,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>2570.423076923077</v>
@@ -1645,19 +1558,16 @@
       <c r="L9">
         <v>146.2679951818754</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>3091.084615384616</v>
@@ -1686,19 +1596,16 @@
       <c r="L10">
         <v>309.2742792819407</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>3408.369230769231</v>
@@ -1727,19 +1634,16 @@
       <c r="L11">
         <v>61.04247526839713</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>7912.569230769232</v>
@@ -1768,19 +1672,16 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>5722.200000000001</v>
@@ -1808,9 +1709,6 @@
       </c>
       <c r="L13">
         <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1820,13 +1718,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1863,19 +1761,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>1551.542307692308</v>
@@ -1904,19 +1799,16 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>812.3769230769232</v>
@@ -1945,19 +1837,16 @@
       <c r="L3">
         <v>66.19494939134982</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>1171.984615384616</v>
@@ -1986,19 +1875,16 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>1308.080769230769</v>
@@ -2027,19 +1913,16 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>3407.746153846154</v>
@@ -2068,19 +1951,16 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>4685.030769230771</v>
@@ -2109,19 +1989,16 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>1881.3</v>
@@ -2150,19 +2027,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>1285.211538461539</v>
@@ -2191,19 +2065,16 @@
       <c r="L9">
         <v>60.50893653971865</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>1545.542307692308</v>
@@ -2232,19 +2103,16 @@
       <c r="L10">
         <v>26.74982466225837</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>1704.184615384615</v>
@@ -2273,19 +2141,16 @@
       <c r="L11">
         <v>10.41002264740222</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>3956.284615384616</v>
@@ -2314,19 +2179,16 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>2861.1</v>
@@ -2354,9 +2216,6 @@
       </c>
       <c r="L13">
         <v>152.9564109057762</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2366,13 +2225,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2409,19 +2268,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>5112.553846153846</v>
@@ -2449,9 +2305,6 @@
       </c>
       <c r="L2">
         <v>14.20811061820955</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/04_pin_factor_secondary.xlsx
+++ b/output_validation/04_pin_factor_secondary.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>Population group</t>
@@ -52,61 +52,70 @@
     <t># severity level 5</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
+    <t>MMR012011</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR012016</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>ocap</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012005</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -522,13 +531,13 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>21721.59230769231</v>
+        <v>47708.44615384615</v>
       </c>
       <c r="D2">
-        <v>0.9140697865545047</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>19855.05124431628</v>
+        <v>47708.44615384615</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -537,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.08593021344549534</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1866.54106337603</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -557,25 +566,25 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>11373.27692307692</v>
+        <v>55387.98461538462</v>
       </c>
       <c r="D3">
-        <v>0.2953518416036127</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3359.118284298639</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6741199099500413</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7666.952415221499</v>
+        <v>55387.98461538462</v>
       </c>
       <c r="H3">
-        <v>0.03052824844634616</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>347.2062235567877</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -592,19 +601,19 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>16407.78461538461</v>
+        <v>11373.27692307692</v>
       </c>
       <c r="D4">
-        <v>0.6703202566789164</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>10998.47039491699</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3296797433210837</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5409.314220467625</v>
+        <v>11373.27692307692</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -627,31 +636,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>18313.13076923077</v>
+        <v>108372.1153846154</v>
       </c>
       <c r="D5">
-        <v>0.125776487776275</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2303.36126834148</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7550424483963755</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>13827.191093803</v>
+        <v>108372.1153846154</v>
       </c>
       <c r="H5">
-        <v>0.03435466991323431</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>629.1415626548178</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08482639391411527</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1553.436844431474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,25 +671,25 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>47708.44615384615</v>
+        <v>21721.59230769231</v>
       </c>
       <c r="D6">
-        <v>0.1225075068689798</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5844.642794900662</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8774924931310202</v>
+        <v>0.6964641341585097</v>
       </c>
       <c r="G6">
-        <v>41863.80335894549</v>
+        <v>15128.30997912107</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3035358658414903</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>6593.282328571239</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -697,25 +706,25 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>65590.43076923076</v>
+        <v>19678.93846153846</v>
       </c>
       <c r="D7">
-        <v>0.7256068481815973</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>47592.86574133479</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2146109304523383</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>14076.42337615429</v>
+        <v>19678.93846153846</v>
       </c>
       <c r="H7">
-        <v>0.05978222136606444</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>3921.141651741677</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -732,31 +741,31 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>26338.2</v>
+        <v>40055.4</v>
       </c>
       <c r="D8">
-        <v>0.7924190383905769</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>20870.8911169387</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1591963593292097</v>
+        <v>0.8613945520003562</v>
       </c>
       <c r="G8">
-        <v>4192.945551284592</v>
+        <v>34503.50333819506</v>
       </c>
       <c r="H8">
-        <v>0.04838460228021334</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1274.363331776715</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1386054479996439</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>5551.896661804937</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,13 +776,13 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>19010.81538461538</v>
+        <v>23858.58461538462</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>19010.81538461538</v>
+        <v>23858.58461538462</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -802,19 +811,19 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>17992.96153846154</v>
+        <v>21637.59230769231</v>
       </c>
       <c r="D10">
-        <v>0.6777018473264718</v>
+        <v>0.4190776228049733</v>
       </c>
       <c r="E10">
-        <v>12193.86327348954</v>
+        <v>9067.830747530868</v>
       </c>
       <c r="F10">
-        <v>0.3222981526735283</v>
+        <v>0.5809223771950267</v>
       </c>
       <c r="G10">
-        <v>5799.098264972</v>
+        <v>12569.76156016144</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -840,16 +849,16 @@
         <v>108372.1153846154</v>
       </c>
       <c r="D11">
-        <v>0.8620064665872667</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>93417.46425927986</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1379935334127334</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>14954.65112533552</v>
+        <v>108372.1153846154</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -872,25 +881,25 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>21637.59230769231</v>
+        <v>26338.2</v>
       </c>
       <c r="D12">
-        <v>0.7715321758342893</v>
+        <v>0.3864325710142018</v>
       </c>
       <c r="E12">
-        <v>16694.09867296912</v>
+        <v>10177.93834188625</v>
       </c>
       <c r="F12">
-        <v>0.1457899511717343</v>
+        <v>0.6135674289857982</v>
       </c>
       <c r="G12">
-        <v>3154.543526012355</v>
+        <v>16160.26165811375</v>
       </c>
       <c r="H12">
-        <v>0.08267787299397636</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1788.950108710824</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -907,31 +916,31 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>23858.58461538462</v>
+        <v>21703.82307692308</v>
       </c>
       <c r="D13">
-        <v>0.2976141001389314</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>7100.651190896246</v>
+        <v>21703.82307692308</v>
       </c>
       <c r="F13">
-        <v>0.6202356802759943</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>14797.94545934545</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.03738545073187088</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>891.9639396706342</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0447647688532033</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1068.024025472285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -942,25 +951,25 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>21703.82307692308</v>
+        <v>47708.44615384615</v>
       </c>
       <c r="D14">
-        <v>0.5554147187463672</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E14">
-        <v>12054.62278999014</v>
+        <v>43608.84919269323</v>
       </c>
       <c r="F14">
-        <v>0.4041575688726384</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>8771.764370011097</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.04042771238099447</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I14">
-        <v>877.4359169218366</v>
+        <v>4099.596961152921</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -977,25 +986,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>55387.98461538462</v>
+        <v>21721.59230769231</v>
       </c>
       <c r="D15">
-        <v>0.8804077503986378</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E15">
-        <v>48764.01093434513</v>
+        <v>19855.05124431628</v>
       </c>
       <c r="F15">
-        <v>0.1195922496013622</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>6623.973681039485</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1866.54106337603</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1012,25 +1021,25 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>40055.4</v>
+        <v>19678.93846153846</v>
       </c>
       <c r="D16">
-        <v>0.6968263533264397</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E16">
-        <v>27911.65831303187</v>
+        <v>17987.92307915769</v>
       </c>
       <c r="F16">
-        <v>0.3031736466735603</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>12143.74168696813</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1691.015382380768</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1047,25 +1056,25 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>16329.27692307692</v>
+        <v>19010.81538461538</v>
       </c>
       <c r="D17">
-        <v>0.9310762092269746</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E17">
-        <v>15203.80125695598</v>
+        <v>5614.879334232446</v>
       </c>
       <c r="F17">
-        <v>0.06892379077302539</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G17">
-        <v>1125.475666120946</v>
+        <v>12815.56915515378</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>580.3668952291582</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1082,25 +1091,25 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>18886.26923076923</v>
+        <v>65590.43076923076</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E18">
-        <v>18886.26923076923</v>
+        <v>19372.25451926657</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>44215.81528373827</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2002.360966225944</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1117,25 +1126,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>19678.93846153846</v>
+        <v>16329.27692307692</v>
       </c>
       <c r="D19">
-        <v>0.7262436922562635</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E19">
-        <v>14291.70492799149</v>
+        <v>4822.882011286143</v>
       </c>
       <c r="F19">
-        <v>0.2737563077437364</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G19">
-        <v>5387.233533546974</v>
+        <v>11007.8906889339</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>498.5042228568793</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1151,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1194,31 +1203,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>3103.084615384616</v>
+        <v>7912.569230769232</v>
       </c>
       <c r="D2">
-        <v>0.6986378325573731</v>
+        <v>0.7203196040432472</v>
       </c>
       <c r="E2">
-        <v>2167.932309934438</v>
+        <v>5699.578735272475</v>
       </c>
       <c r="F2">
-        <v>0.1309296905708729</v>
+        <v>0.2796803959567528</v>
       </c>
       <c r="G2">
-        <v>406.2859085075438</v>
+        <v>2212.990495496758</v>
       </c>
       <c r="H2">
-        <v>0.1704324768717539</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>528.866396942634</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1229,31 +1238,31 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>1624.753846153846</v>
+        <v>15481.73076923077</v>
       </c>
       <c r="D3">
-        <v>0.4671520190982254</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>759.0070397683768</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4362981448828352</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>708.8770889681747</v>
+        <v>15481.73076923077</v>
       </c>
       <c r="H3">
-        <v>0.09654983601893945</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>156.869717417295</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1264,31 +1273,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>2343.969230769231</v>
+        <v>6815.492307692309</v>
       </c>
       <c r="D4">
-        <v>0.5505005570185084</v>
+        <v>0.2686371247226884</v>
       </c>
       <c r="E4">
-        <v>1290.356367172707</v>
+        <v>1830.894257108062</v>
       </c>
       <c r="F4">
-        <v>0.4494994429814916</v>
+        <v>0.5716063443351023</v>
       </c>
       <c r="G4">
-        <v>1053.612863596525</v>
+        <v>3895.77864284401</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1597565309422093</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1088.819407740236</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1299,31 +1308,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>2616.161538461539</v>
+        <v>3103.084615384616</v>
       </c>
       <c r="D5">
-        <v>0.2362255938995011</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>618.0043131601095</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7237605554225978</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1893.474528152161</v>
+        <v>3103.084615384616</v>
       </c>
       <c r="H5">
-        <v>0.04001385067790107</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>104.6826971492679</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1334,31 +1343,31 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>6815.492307692309</v>
+        <v>2616.161538461539</v>
       </c>
       <c r="D6">
-        <v>0.06043364741733242</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>411.8850590986182</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8583608304788509</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>5850.15163735299</v>
+        <v>2616.161538461539</v>
       </c>
       <c r="H6">
-        <v>0.08120552210381662</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>553.4556112406999</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1369,66 +1378,66 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>9370.061538461541</v>
+        <v>2343.969230769231</v>
       </c>
       <c r="D7">
-        <v>0.165981388455387</v>
+        <v>0.5480373400211801</v>
       </c>
       <c r="E7">
-        <v>1555.255824066266</v>
+        <v>1284.582662322261</v>
       </c>
       <c r="F7">
-        <v>0.6465252877086792</v>
+        <v>0.18983405326939</v>
       </c>
       <c r="G7">
-        <v>6057.981732001876</v>
+        <v>444.9651798156574</v>
       </c>
       <c r="H7">
-        <v>0.1874933238359339</v>
+        <v>0.1812730652342958</v>
       </c>
       <c r="I7">
-        <v>1756.823982393398</v>
+        <v>424.8984872764128</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08085554147513409</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>189.5229013548997</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>3762.6</v>
+        <v>3408.369230769231</v>
       </c>
       <c r="D8">
-        <v>0.8382017667306252</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>3153.817967500651</v>
+        <v>3408.369230769231</v>
       </c>
       <c r="F8">
-        <v>0.1230474506907969</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>462.9783379691924</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.03875078257857791</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>145.8036945301573</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1439,31 +1448,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>2570.423076923077</v>
+        <v>6815.492307692309</v>
       </c>
       <c r="D9">
-        <v>0.3348719340637654</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E9">
-        <v>860.7625471313656</v>
+        <v>4761.560773657603</v>
       </c>
       <c r="F9">
-        <v>0.5078237190080316</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G9">
-        <v>1305.321806347145</v>
+        <v>892.3502989343183</v>
       </c>
       <c r="H9">
-        <v>0.1573043469282031</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I9">
-        <v>404.3387234445671</v>
+        <v>1161.581235100386</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1474,31 +1483,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>3091.084615384616</v>
+        <v>3103.084615384616</v>
       </c>
       <c r="D10">
-        <v>0.5046915229780159</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E10">
-        <v>1560.044202192376</v>
+        <v>2167.932309934438</v>
       </c>
       <c r="F10">
-        <v>0.3583226586368378</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G10">
-        <v>1107.605657456043</v>
+        <v>406.2859085075438</v>
       </c>
       <c r="H10">
-        <v>0.1369858183851464</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I10">
-        <v>423.434755736197</v>
+        <v>528.866396942634</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1509,66 +1518,66 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>3408.369230769231</v>
+        <v>2811.276923076924</v>
       </c>
       <c r="D11">
-        <v>0.3709017435176196</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E11">
-        <v>1264.170090244116</v>
+        <v>1964.064416257022</v>
       </c>
       <c r="F11">
-        <v>0.4558409666193095</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G11">
-        <v>1553.674324749358</v>
+        <v>368.0796176474972</v>
       </c>
       <c r="H11">
-        <v>0.1422492925461661</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I11">
-        <v>484.8381118130435</v>
+        <v>479.1328891724033</v>
       </c>
       <c r="J11">
-        <v>0.03100799731690495</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>105.6867039627137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>7912.569230769232</v>
+        <v>2715.830769230769</v>
       </c>
       <c r="D12">
-        <v>0.4017572619326708</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="E12">
-        <v>3178.932149006545</v>
+        <v>1268.705827375241</v>
       </c>
       <c r="F12">
-        <v>0.5982427380673293</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="G12">
-        <v>4733.637081762687</v>
+        <v>1184.911926431108</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>262.213015424421</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1579,36 +1588,71 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>5722.200000000001</v>
+        <v>9370.061538461541</v>
       </c>
       <c r="D13">
-        <v>0.07542672232317281</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="E13">
-        <v>431.6067904776595</v>
+        <v>4377.243166766933</v>
       </c>
       <c r="F13">
-        <v>0.8690003027501599</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="G13">
-        <v>4972.593532396965</v>
+        <v>4088.140466668775</v>
       </c>
       <c r="H13">
-        <v>0.05557297492666727</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="I13">
-        <v>317.9996771253755</v>
+        <v>904.6779050258333</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>2332.753846153847</v>
+      </c>
+      <c r="D14">
+        <v>0.4671520190982254</v>
+      </c>
+      <c r="E14">
+        <v>1089.75066928992</v>
+      </c>
+      <c r="F14">
+        <v>0.4362981448828352</v>
+      </c>
+      <c r="G14">
+        <v>1017.776175545222</v>
+      </c>
+      <c r="H14">
+        <v>0.09654983601893945</v>
+      </c>
+      <c r="I14">
+        <v>225.2270013187042</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1619,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1662,25 +1706,25 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>1551.542307692308</v>
+        <v>812.3769230769232</v>
       </c>
       <c r="D2">
-        <v>0.5697812081955935</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>884.0396506435025</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4302187918044066</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>667.5026570488055</v>
+        <v>812.3769230769232</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1697,25 +1741,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>812.3769230769232</v>
+        <v>7740.865384615385</v>
       </c>
       <c r="D3">
-        <v>0.112582448398471</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>91.45938302241632</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8584936775155422</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>697.4204522210686</v>
+        <v>7740.865384615385</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1724,39 +1768,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02892387408598686</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>23.49708783343836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>1171.984615384616</v>
+        <v>3407.746153846154</v>
       </c>
       <c r="D4">
-        <v>0.7742993638732156</v>
+        <v>0.4958472855812806</v>
       </c>
       <c r="E4">
-        <v>907.4669421615031</v>
+        <v>1689.721680334665</v>
       </c>
       <c r="F4">
-        <v>0.2257006361267845</v>
+        <v>0.2016356958596897</v>
       </c>
       <c r="G4">
-        <v>264.5176732231125</v>
+        <v>687.1232670439506</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3025170185590298</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1030.90120646754</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1767,31 +1811,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>1308.080769230769</v>
+        <v>1551.542307692308</v>
       </c>
       <c r="D5">
-        <v>0.4535007307593025</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>593.2155847383445</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4693465799928334</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>613.9432353928563</v>
+        <v>1551.542307692308</v>
       </c>
       <c r="H5">
-        <v>0.07715268924786407</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>100.9219490995686</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1802,25 +1846,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>3407.746153846154</v>
+        <v>1405.638461538462</v>
       </c>
       <c r="D6">
-        <v>0.05932678460569384</v>
+        <v>0.8405128819480061</v>
       </c>
       <c r="E6">
-        <v>202.1706220601124</v>
+        <v>1181.457234284654</v>
       </c>
       <c r="F6">
-        <v>0.9406732153943062</v>
+        <v>0.1594871180519939</v>
       </c>
       <c r="G6">
-        <v>3205.575531786042</v>
+        <v>224.1812272538077</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1837,31 +1881,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>4685.030769230771</v>
+        <v>1308.080769230769</v>
       </c>
       <c r="D7">
-        <v>0.4111018004330445</v>
+        <v>0.5079094701116023</v>
       </c>
       <c r="E7">
-        <v>1926.024584314981</v>
+        <v>664.3866103631772</v>
       </c>
       <c r="F7">
-        <v>0.2813629377676347</v>
+        <v>0.4920905298883979</v>
       </c>
       <c r="G7">
-        <v>1318.194020762531</v>
+        <v>643.6941588675925</v>
       </c>
       <c r="H7">
-        <v>0.3075352617993207</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1440.812164153258</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1875,22 +1919,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>1881.3</v>
+        <v>2861.1</v>
       </c>
       <c r="D8">
-        <v>0.6174902311128901</v>
+        <v>0.5648647401941971</v>
       </c>
       <c r="E8">
-        <v>1161.68437179268</v>
+        <v>1616.134508169617</v>
       </c>
       <c r="F8">
-        <v>0.3825097688871097</v>
+        <v>0.4351352598058029</v>
       </c>
       <c r="G8">
-        <v>719.6156282073197</v>
+        <v>1244.965491830383</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1907,31 +1951,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>1285.211538461539</v>
+        <v>7740.865384615385</v>
       </c>
       <c r="D9">
-        <v>0.1101821941067391</v>
+        <v>0.5514290487937468</v>
       </c>
       <c r="E9">
-        <v>141.6074271989901</v>
+        <v>4268.538035878903</v>
       </c>
       <c r="F9">
-        <v>0.7635005315760697</v>
+        <v>0.4485709512062533</v>
       </c>
       <c r="G9">
-        <v>981.2596928030831</v>
+        <v>3472.327348736483</v>
       </c>
       <c r="H9">
-        <v>0.1263172743171913</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>162.3444184594655</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1942,31 +1986,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>1545.542307692308</v>
+        <v>3407.746153846154</v>
       </c>
       <c r="D10">
-        <v>0.4768203747314557</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E10">
-        <v>736.946062317165</v>
+        <v>1941.669720762349</v>
       </c>
       <c r="F10">
-        <v>0.3771087072538309</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G10">
-        <v>582.8374616599489</v>
+        <v>1466.076433083806</v>
       </c>
       <c r="H10">
-        <v>0.1460709180147134</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>225.758783715194</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1977,31 +2021,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>1704.184615384615</v>
+        <v>1551.542307692308</v>
       </c>
       <c r="D11">
-        <v>0.5063949657374379</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E11">
-        <v>862.9905099179612</v>
+        <v>884.0396506435025</v>
       </c>
       <c r="F11">
-        <v>0.4543501314915568</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G11">
-        <v>774.2965040858883</v>
+        <v>667.5026570488055</v>
       </c>
       <c r="H11">
-        <v>0.03925490277100506</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>66.89760138076574</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2012,25 +2056,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>3956.284615384616</v>
+        <v>1405.638461538462</v>
       </c>
       <c r="D12">
-        <v>0.6101954436206178</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E12">
-        <v>2414.106845974041</v>
+        <v>800.9063809015801</v>
       </c>
       <c r="F12">
-        <v>0.3898045563793823</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G12">
-        <v>1542.177769410575</v>
+        <v>604.7320806368818</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2047,37 +2091,107 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>2861.1</v>
+        <v>1357.915384615385</v>
       </c>
       <c r="D13">
-        <v>0.4427434746950732</v>
+        <v>0.112582448398471</v>
       </c>
       <c r="E13">
-        <v>1266.733355450074</v>
+        <v>152.8774387179514</v>
       </c>
       <c r="F13">
-        <v>0.4344131602771897</v>
+        <v>0.8584936775155422</v>
       </c>
       <c r="G13">
-        <v>1242.899492869068</v>
+        <v>1165.761772293394</v>
       </c>
       <c r="H13">
-        <v>0.1228433650277372</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>351.4671516808588</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02892387408598686</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>39.2761736040398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>4685.030769230771</v>
+      </c>
+      <c r="D14">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="E14">
+        <v>527.4522348221719</v>
+      </c>
+      <c r="F14">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="G14">
+        <v>4022.069294350394</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.02892387408598686</v>
+      </c>
+      <c r="K14">
+        <v>135.509240058205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1166.376923076923</v>
+      </c>
+      <c r="D15">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="E15">
+        <v>131.313569755475</v>
+      </c>
+      <c r="F15">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="G15">
+        <v>1001.32721406157</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.02892387408598686</v>
+      </c>
+      <c r="K15">
+        <v>33.73613925987771</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2130,36 +2244,211 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>10223.23846153846</v>
+      </c>
+      <c r="D2">
+        <v>0.2304031860173474</v>
+      </c>
+      <c r="E2">
+        <v>2355.466712953547</v>
+      </c>
+      <c r="F2">
+        <v>0.4969275497660341</v>
+      </c>
+      <c r="G2">
+        <v>5080.208839366188</v>
+      </c>
+      <c r="H2">
+        <v>0.2726692642166184</v>
+      </c>
+      <c r="I2">
+        <v>2787.562909218726</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>4654.626923076923</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4654.626923076923</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>4216.915384615385</v>
+      </c>
+      <c r="D4">
+        <v>0.7820095700217157</v>
+      </c>
+      <c r="E4">
+        <v>3297.668186741035</v>
+      </c>
+      <c r="F4">
+        <v>0.2179904299782842</v>
+      </c>
+      <c r="G4">
+        <v>919.2471978743495</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>3924.242307692308</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3924.242307692308</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>3515.953846153846</v>
+      </c>
+      <c r="D6">
+        <v>0.233279274036484</v>
+      </c>
+      <c r="E6">
+        <v>820.199160776553</v>
+      </c>
+      <c r="F6">
+        <v>0.7667207259635161</v>
+      </c>
+      <c r="G6">
+        <v>2695.754685377294</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
         <v>5112.553846153846</v>
       </c>
-      <c r="D2">
-        <v>0.357012769940906</v>
-      </c>
-      <c r="E2">
-        <v>1825.247010087417</v>
-      </c>
-      <c r="F2">
-        <v>0.5302458965458244</v>
-      </c>
-      <c r="G2">
-        <v>2710.910697792649</v>
-      </c>
-      <c r="H2">
-        <v>0.1127413335132695</v>
-      </c>
-      <c r="I2">
-        <v>576.3961382737797</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5112.553846153846</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
     </row>

--- a/output_validation/04_pin_factor_secondary.xlsx
+++ b/output_validation/04_pin_factor_secondary.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>Population group</t>
@@ -52,70 +52,61 @@
     <t># severity level 5</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
-    <t>MMR012011</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR012016</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012005</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -531,31 +522,31 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>47708.44615384615</v>
+        <v>21721.59230769231</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7355010475254173</v>
       </c>
       <c r="E2">
-        <v>47708.44615384615</v>
+        <v>15976.25389622774</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2347291702405611</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5098.69133868837</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02317121176486182</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>503.315615231532</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.006598570469159679</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>143.3314575446645</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -566,25 +557,25 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>55387.98461538462</v>
+        <v>11373.27692307692</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2881114296960966</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3276.771074637315</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6737953618662589</v>
       </c>
       <c r="G3">
-        <v>55387.98461538462</v>
+        <v>7663.261239989786</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03809320843764467</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>433.2446084498232</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -601,31 +592,31 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>11373.27692307692</v>
+        <v>16407.78461538461</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.542864226316311</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>8907.199300795441</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3976487884179679</v>
       </c>
       <c r="G4">
-        <v>11373.27692307692</v>
+        <v>6524.535672930665</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.05502289074026563</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>902.803740182119</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.004464094525455411</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>73.24590147638997</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -636,31 +627,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>108372.1153846154</v>
+        <v>18313.13076923077</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2957402131124322</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5415.929196448147</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6578798859844721</v>
       </c>
       <c r="G5">
-        <v>108372.1153846154</v>
+        <v>12047.84038248027</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03533270074859607</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>647.0523692391378</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01104720015449962</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>202.3088210632179</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -671,31 +662,31 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>21721.59230769231</v>
+        <v>47708.44615384615</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2168995155835068</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10347.93886001105</v>
       </c>
       <c r="F6">
-        <v>0.6964641341585097</v>
+        <v>0.7305780530002808</v>
       </c>
       <c r="G6">
-        <v>15128.30997912107</v>
+        <v>34854.74370274565</v>
       </c>
       <c r="H6">
-        <v>0.3035358658414903</v>
+        <v>0.04763420632265963</v>
       </c>
       <c r="I6">
-        <v>6593.282328571239</v>
+        <v>2272.553967425805</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.004888225093552757</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>233.2096236636413</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,25 +697,25 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>19678.93846153846</v>
+        <v>65590.43076923076</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.7255237755561456</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>47587.41697204628</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.2370695257967525</v>
       </c>
       <c r="G7">
-        <v>19678.93846153846</v>
+        <v>15549.49231926626</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.03740669864710201</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2453.521477918222</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -741,31 +732,31 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>40055.4</v>
+        <v>26338.2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.7749837497270196</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>20411.67699706019</v>
       </c>
       <c r="F8">
-        <v>0.8613945520003562</v>
+        <v>0.209809235113927</v>
       </c>
       <c r="G8">
-        <v>34503.50333819506</v>
+        <v>5525.997596277632</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0152070151590535</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>400.5254066621829</v>
       </c>
       <c r="J8">
-        <v>0.1386054479996439</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>5551.896661804937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -776,25 +767,25 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>23858.58461538462</v>
+        <v>19010.81538461538</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.7567306197548094</v>
       </c>
       <c r="E9">
-        <v>23858.58461538462</v>
+        <v>14386.06610804426</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1675719832943586</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3185.680038042904</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.07569739695083223</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1439.069238528219</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -811,25 +802,25 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>21637.59230769231</v>
+        <v>17992.96153846154</v>
       </c>
       <c r="D10">
-        <v>0.4190776228049733</v>
+        <v>0.7815722567773472</v>
       </c>
       <c r="E10">
-        <v>9067.830747530868</v>
+        <v>14062.7995557234</v>
       </c>
       <c r="F10">
-        <v>0.5809223771950267</v>
+        <v>0.2048177817451928</v>
       </c>
       <c r="G10">
-        <v>12569.76156016144</v>
+        <v>3685.278469334264</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0136099614774599</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>244.8835134038791</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -849,28 +840,28 @@
         <v>108372.1153846154</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.7738342948998559</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>83862.05949545966</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.1835332944656455</v>
       </c>
       <c r="G11">
-        <v>108372.1153846154</v>
+        <v>19889.89136474952</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03543814744568882</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3840.507004001202</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.007194263188809723</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>779.6575204049783</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -881,31 +872,31 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>26338.2</v>
+        <v>21637.59230769231</v>
       </c>
       <c r="D12">
-        <v>0.3864325710142018</v>
+        <v>0.6759834838293406</v>
       </c>
       <c r="E12">
-        <v>10177.93834188625</v>
+        <v>14626.65502983279</v>
       </c>
       <c r="F12">
-        <v>0.6135674289857982</v>
+        <v>0.1561867307546227</v>
       </c>
       <c r="G12">
-        <v>16160.26165811375</v>
+        <v>3379.504803939833</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08718604184052609</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1886.496028266707</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08064374357551064</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1744.93644565298</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -916,31 +907,31 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>21703.82307692308</v>
+        <v>23858.58461538462</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.4619138320502864</v>
       </c>
       <c r="E13">
-        <v>21703.82307692308</v>
+        <v>11020.61024698832</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.4818668178334236</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>11496.66024662486</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.05227372759553111</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1247.177152999545</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.003945622520758929</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>94.13696877189406</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -951,31 +942,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>47708.44615384615</v>
+        <v>21703.82307692308</v>
       </c>
       <c r="D14">
-        <v>0.9140697865545047</v>
+        <v>0.6577904324554797</v>
       </c>
       <c r="E14">
-        <v>43608.84919269323</v>
+        <v>14276.56716770645</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.2601186299610622</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>5645.568723686515</v>
       </c>
       <c r="H14">
-        <v>0.08593021344549534</v>
+        <v>0.07780282150174836</v>
       </c>
       <c r="I14">
-        <v>4099.596961152921</v>
+        <v>1688.618672759373</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.004288116081709647</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>93.06851277073478</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -986,25 +977,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>21721.59230769231</v>
+        <v>55387.98461538462</v>
       </c>
       <c r="D15">
-        <v>0.9140697865545047</v>
+        <v>0.8174822877535954</v>
       </c>
       <c r="E15">
-        <v>19855.05124431628</v>
+        <v>45278.69637744557</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.1384496847897296</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>7668.449011138395</v>
       </c>
       <c r="H15">
-        <v>0.08593021344549534</v>
+        <v>0.04406802745667497</v>
       </c>
       <c r="I15">
-        <v>1866.54106337603</v>
+        <v>2440.83922680066</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1021,31 +1012,31 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>19678.93846153846</v>
+        <v>40055.4</v>
       </c>
       <c r="D16">
-        <v>0.9140697865545047</v>
+        <v>0.5381211257149618</v>
       </c>
       <c r="E16">
-        <v>17987.92307915769</v>
+        <v>21554.65693896308</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.3977397650072821</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>15931.62538327269</v>
       </c>
       <c r="H16">
-        <v>0.08593021344549534</v>
+        <v>0.05827276357034409</v>
       </c>
       <c r="I16">
-        <v>1691.015382380768</v>
+        <v>2334.138853915561</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.005866345707411853</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>234.9788238486647</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1056,25 +1047,25 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>19010.81538461538</v>
+        <v>16329.27692307692</v>
       </c>
       <c r="D17">
-        <v>0.2953518416036127</v>
+        <v>0.8548534137558078</v>
       </c>
       <c r="E17">
-        <v>5614.879334232446</v>
+        <v>13959.13812185624</v>
       </c>
       <c r="F17">
-        <v>0.6741199099500413</v>
+        <v>0.1094267861545242</v>
       </c>
       <c r="G17">
-        <v>12815.56915515378</v>
+        <v>1786.860293919546</v>
       </c>
       <c r="H17">
-        <v>0.03052824844634616</v>
+        <v>0.03571980008966798</v>
       </c>
       <c r="I17">
-        <v>580.3668952291582</v>
+        <v>583.2785073011363</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1091,31 +1082,31 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>65590.43076923076</v>
+        <v>18886.26923076923</v>
       </c>
       <c r="D18">
-        <v>0.2953518416036127</v>
+        <v>0.9248139239710328</v>
       </c>
       <c r="E18">
-        <v>19372.25451926657</v>
+        <v>17466.28475648107</v>
       </c>
       <c r="F18">
-        <v>0.6741199099500413</v>
+        <v>0.03634751776327397</v>
       </c>
       <c r="G18">
-        <v>44215.81528373827</v>
+        <v>686.4690063473593</v>
       </c>
       <c r="H18">
-        <v>0.03052824844634616</v>
+        <v>0.03292999288485467</v>
       </c>
       <c r="I18">
-        <v>2002.360966225944</v>
+        <v>621.9247113906806</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.005908565380838581</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>111.59075655012</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1126,25 +1117,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>16329.27692307692</v>
+        <v>19678.93846153846</v>
       </c>
       <c r="D19">
-        <v>0.2953518416036127</v>
+        <v>0.87123704802994</v>
       </c>
       <c r="E19">
-        <v>4822.882011286143</v>
+        <v>17145.02025359362</v>
       </c>
       <c r="F19">
-        <v>0.6741199099500413</v>
+        <v>0.08529242819010917</v>
       </c>
       <c r="G19">
-        <v>11007.8906889339</v>
+        <v>1678.464445588347</v>
       </c>
       <c r="H19">
-        <v>0.03052824844634616</v>
+        <v>0.04347052377995093</v>
       </c>
       <c r="I19">
-        <v>498.5042228568793</v>
+        <v>855.4537623564987</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1160,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1203,31 +1194,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>7912.569230769232</v>
+        <v>3103.084615384616</v>
       </c>
       <c r="D2">
-        <v>0.7203196040432472</v>
+        <v>0.7106540107189163</v>
       </c>
       <c r="E2">
-        <v>5699.578735272475</v>
+        <v>2205.219527523243</v>
       </c>
       <c r="F2">
-        <v>0.2796803959567528</v>
+        <v>0.1940314058866316</v>
       </c>
       <c r="G2">
-        <v>2212.990495496758</v>
+        <v>602.0958705082546</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.09531458339445194</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>295.7692173531178</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1238,206 +1229,206 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>15481.73076923077</v>
+        <v>1624.753846153846</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3290499252879423</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>534.62513168822</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6036718536496696</v>
       </c>
       <c r="G3">
-        <v>15481.73076923077</v>
+        <v>980.8181660321225</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01970547031554419</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>32.01653868545087</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04757275074684381</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>77.29400974805274</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4">
-        <v>6815.492307692309</v>
+        <v>2343.969230769231</v>
       </c>
       <c r="D4">
-        <v>0.2686371247226884</v>
+        <v>0.451490579415013</v>
       </c>
       <c r="E4">
-        <v>1830.894257108062</v>
+        <v>1058.280026130962</v>
       </c>
       <c r="F4">
-        <v>0.5716063443351023</v>
+        <v>0.4698528086710667</v>
       </c>
       <c r="G4">
-        <v>3895.77864284401</v>
+        <v>1101.320526515483</v>
       </c>
       <c r="H4">
-        <v>0.1597565309422093</v>
+        <v>0.03905124774921262</v>
       </c>
       <c r="I4">
-        <v>1088.819407740236</v>
+        <v>91.53492314730057</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03960536416470775</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>92.83375497548529</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>3103.084615384616</v>
+        <v>2616.161538461539</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2418234127364369</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>632.6491115005765</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.7294574180822524</v>
       </c>
       <c r="G5">
-        <v>3103.084615384616</v>
+        <v>1908.378441132247</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02208829116628782</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>57.78653779958196</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.006630878015022912</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.34744802913313</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>2616.161538461539</v>
+        <v>6815.492307692309</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03115927001577109</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>212.3657651057955</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.8586113691592343</v>
       </c>
       <c r="G6">
-        <v>2616.161538461539</v>
+        <v>5851.859181801923</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0225249404565677</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>153.5185584129645</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08770442036842702</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>597.748802371627</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>2343.969230769231</v>
+        <v>9370.061538461541</v>
       </c>
       <c r="D7">
-        <v>0.5480373400211801</v>
+        <v>0.3453075914522154</v>
       </c>
       <c r="E7">
-        <v>1284.582662322261</v>
+        <v>3235.553381605194</v>
       </c>
       <c r="F7">
-        <v>0.18983405326939</v>
+        <v>0.5658377226259738</v>
       </c>
       <c r="G7">
-        <v>444.9651798156574</v>
+        <v>5301.934281788306</v>
       </c>
       <c r="H7">
-        <v>0.1812730652342958</v>
+        <v>0.0592864017109811</v>
       </c>
       <c r="I7">
-        <v>424.8984872764128</v>
+        <v>555.5172324258444</v>
       </c>
       <c r="J7">
-        <v>0.08085554147513409</v>
+        <v>0.02956828421082979</v>
       </c>
       <c r="K7">
-        <v>189.5229013548997</v>
+        <v>277.0566426421958</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>3408.369230769231</v>
+        <v>3762.6</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.6672571779664611</v>
       </c>
       <c r="E8">
-        <v>3408.369230769231</v>
+        <v>2510.621857816607</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.259974004174096</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>978.1781881054536</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.07276881785944292</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>273.79995407794</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1448,136 +1439,136 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>6815.492307692309</v>
+        <v>2570.423076923077</v>
       </c>
       <c r="D9">
-        <v>0.6986378325573731</v>
+        <v>0.430018342774032</v>
       </c>
       <c r="E9">
-        <v>4761.560773657603</v>
+        <v>1105.32907176659</v>
       </c>
       <c r="F9">
-        <v>0.1309296905708729</v>
+        <v>0.4386203619332985</v>
       </c>
       <c r="G9">
-        <v>892.3502989343183</v>
+        <v>1127.439900321703</v>
       </c>
       <c r="H9">
-        <v>0.1704324768717539</v>
+        <v>0.07445704614588498</v>
       </c>
       <c r="I9">
-        <v>1161.581235100386</v>
+        <v>191.3861096529092</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05690424914678459</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>146.2679951818754</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>3103.084615384616</v>
+        <v>3091.084615384616</v>
       </c>
       <c r="D10">
-        <v>0.6986378325573731</v>
+        <v>0.503759477991108</v>
       </c>
       <c r="E10">
-        <v>2167.932309934438</v>
+        <v>1557.163172272499</v>
       </c>
       <c r="F10">
-        <v>0.1309296905708729</v>
+        <v>0.3269055964410499</v>
       </c>
       <c r="G10">
-        <v>406.2859085075438</v>
+        <v>1010.492859842061</v>
       </c>
       <c r="H10">
-        <v>0.1704324768717539</v>
+        <v>0.06928128169712645</v>
       </c>
       <c r="I10">
-        <v>528.866396942634</v>
+        <v>214.1543039881153</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1000536438707157</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>309.2742792819407</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>2811.276923076924</v>
+        <v>3408.369230769231</v>
       </c>
       <c r="D11">
-        <v>0.6986378325573731</v>
+        <v>0.3042856291533364</v>
       </c>
       <c r="E11">
-        <v>1964.064416257022</v>
+        <v>1037.117775771489</v>
       </c>
       <c r="F11">
-        <v>0.1309296905708729</v>
+        <v>0.53127577367946</v>
       </c>
       <c r="G11">
-        <v>368.0796176474972</v>
+        <v>1810.784000062189</v>
       </c>
       <c r="H11">
-        <v>0.1704324768717539</v>
+        <v>0.1465290131006264</v>
       </c>
       <c r="I11">
-        <v>479.1328891724033</v>
+        <v>499.4249796671564</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01790958406657735</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>61.04247526839713</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>2715.830769230769</v>
+        <v>7912.569230769232</v>
       </c>
       <c r="D12">
-        <v>0.4671520190982254</v>
+        <v>0.5351307850709578</v>
       </c>
       <c r="E12">
-        <v>1268.705827375241</v>
+        <v>4234.259384389844</v>
       </c>
       <c r="F12">
-        <v>0.4362981448828352</v>
+        <v>0.427848515348812</v>
       </c>
       <c r="G12">
-        <v>1184.911926431108</v>
+        <v>3385.380997979307</v>
       </c>
       <c r="H12">
-        <v>0.09654983601893945</v>
+        <v>0.03702069958023029</v>
       </c>
       <c r="I12">
-        <v>262.213015424421</v>
+        <v>292.9288484000816</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1588,71 +1579,36 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>9370.061538461541</v>
+        <v>5722.200000000001</v>
       </c>
       <c r="D13">
-        <v>0.4671520190982254</v>
+        <v>0.1606215520728562</v>
       </c>
       <c r="E13">
-        <v>4377.243166766933</v>
+        <v>919.108645271298</v>
       </c>
       <c r="F13">
-        <v>0.4362981448828352</v>
+        <v>0.8104340121734962</v>
       </c>
       <c r="G13">
-        <v>4088.140466668775</v>
+        <v>4637.46550445918</v>
       </c>
       <c r="H13">
-        <v>0.09654983601893945</v>
+        <v>0.02894443575364755</v>
       </c>
       <c r="I13">
-        <v>904.6779050258333</v>
+        <v>165.625850269522</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>2332.753846153847</v>
-      </c>
-      <c r="D14">
-        <v>0.4671520190982254</v>
-      </c>
-      <c r="E14">
-        <v>1089.75066928992</v>
-      </c>
-      <c r="F14">
-        <v>0.4362981448828352</v>
-      </c>
-      <c r="G14">
-        <v>1017.776175545222</v>
-      </c>
-      <c r="H14">
-        <v>0.09654983601893945</v>
-      </c>
-      <c r="I14">
-        <v>225.2270013187042</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1663,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1706,31 +1662,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>812.3769230769232</v>
+        <v>1551.542307692308</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5993405930558749</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>929.9022868435886</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3636580578984003</v>
       </c>
       <c r="G2">
-        <v>812.3769230769232</v>
+        <v>564.2308623625869</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03700134904572487</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>57.40915848613254</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1741,66 +1697,66 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>7740.865384615385</v>
+        <v>812.3769230769232</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1643234671516556</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>133.4925926339938</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.7269411387684906</v>
       </c>
       <c r="G3">
-        <v>7740.865384615385</v>
+        <v>590.550205570781</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02725234414210714</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>22.13917548079841</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08148304993774656</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>66.19494939134982</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>3407.746153846154</v>
+        <v>1171.984615384616</v>
       </c>
       <c r="D4">
-        <v>0.4958472855812806</v>
+        <v>0.4917716660792545</v>
       </c>
       <c r="E4">
-        <v>1689.721680334665</v>
+        <v>576.3488269269467</v>
       </c>
       <c r="F4">
-        <v>0.2016356958596897</v>
+        <v>0.5018100436891416</v>
       </c>
       <c r="G4">
-        <v>687.1232670439506</v>
+        <v>588.1136510491557</v>
       </c>
       <c r="H4">
-        <v>0.3025170185590298</v>
+        <v>0.006418290231603986</v>
       </c>
       <c r="I4">
-        <v>1030.90120646754</v>
+        <v>7.522137408513233</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1811,31 +1767,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>1551.542307692308</v>
+        <v>1308.080769230769</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.4068563174242845</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>532.2009246627562</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5438038650798588</v>
       </c>
       <c r="G5">
-        <v>1551.542307692308</v>
+        <v>711.3393781443273</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.04933981749585655</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>64.54046642368581</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1846,25 +1802,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>1405.638461538462</v>
+        <v>3407.746153846154</v>
       </c>
       <c r="D6">
-        <v>0.8405128819480061</v>
+        <v>0.07562392814612101</v>
       </c>
       <c r="E6">
-        <v>1181.457234284654</v>
+        <v>257.7071502786818</v>
       </c>
       <c r="F6">
-        <v>0.1594871180519939</v>
+        <v>0.9243760718538789</v>
       </c>
       <c r="G6">
-        <v>224.1812272538077</v>
+        <v>3150.039003567473</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1881,31 +1837,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
       <c r="C7">
-        <v>1308.080769230769</v>
+        <v>4685.030769230771</v>
       </c>
       <c r="D7">
-        <v>0.5079094701116023</v>
+        <v>0.5497172552716943</v>
       </c>
       <c r="E7">
-        <v>664.3866103631772</v>
+        <v>2575.442255324974</v>
       </c>
       <c r="F7">
-        <v>0.4920905298883979</v>
+        <v>0.3892670239583827</v>
       </c>
       <c r="G7">
-        <v>643.6941588675925</v>
+        <v>1823.727984691914</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.06101572076992296</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>285.860529213882</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1919,28 +1875,28 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>2861.1</v>
+        <v>1881.3</v>
       </c>
       <c r="D8">
-        <v>0.5648647401941971</v>
+        <v>0.4732055462978784</v>
       </c>
       <c r="E8">
-        <v>1616.134508169617</v>
+        <v>890.2415942501987</v>
       </c>
       <c r="F8">
-        <v>0.4351352598058029</v>
+        <v>0.4835065653399762</v>
       </c>
       <c r="G8">
-        <v>1244.965491830383</v>
+        <v>909.6209013740972</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0432878883621454</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>81.43750437570415</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1951,136 +1907,136 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>7740.865384615385</v>
+        <v>1285.211538461539</v>
       </c>
       <c r="D9">
-        <v>0.5514290487937468</v>
+        <v>0.2802404301971404</v>
       </c>
       <c r="E9">
-        <v>4268.538035878903</v>
+        <v>360.1682344327903</v>
       </c>
       <c r="F9">
-        <v>0.4485709512062533</v>
+        <v>0.5367967648046197</v>
       </c>
       <c r="G9">
-        <v>3472.327348736483</v>
+        <v>689.897395935722</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1358818889553052</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>174.6369715533078</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04708091604293471</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>60.50893653971865</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>3407.746153846154</v>
+        <v>1545.542307692308</v>
       </c>
       <c r="D10">
-        <v>0.5697812081955935</v>
+        <v>0.5337870602633682</v>
       </c>
       <c r="E10">
-        <v>1941.669720762349</v>
+        <v>824.9904849357391</v>
       </c>
       <c r="F10">
-        <v>0.4302187918044066</v>
+        <v>0.3095139273790007</v>
       </c>
       <c r="G10">
-        <v>1466.076433083806</v>
+        <v>478.3668695842503</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1393912851416745</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>215.4351285100601</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0173077272159565</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>26.74982466225837</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>1551.542307692308</v>
+        <v>1704.184615384615</v>
       </c>
       <c r="D11">
-        <v>0.5697812081955935</v>
+        <v>0.3287750150324628</v>
       </c>
       <c r="E11">
-        <v>884.0396506435025</v>
+        <v>560.2933225411689</v>
       </c>
       <c r="F11">
-        <v>0.4302187918044066</v>
+        <v>0.5839649092903765</v>
       </c>
       <c r="G11">
-        <v>667.5026570488055</v>
+        <v>995.1840143371321</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.08115156926686631</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>138.2972558589126</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.006108506410294514</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.41002264740222</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>1405.638461538462</v>
+        <v>3956.284615384616</v>
       </c>
       <c r="D12">
-        <v>0.5697812081955935</v>
+        <v>0.5928738109452726</v>
       </c>
       <c r="E12">
-        <v>800.9063809015801</v>
+        <v>2345.577537107229</v>
       </c>
       <c r="F12">
-        <v>0.4302187918044066</v>
+        <v>0.2064855341440782</v>
       </c>
       <c r="G12">
-        <v>604.7320806368818</v>
+        <v>816.9155420336915</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2006406549106493</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>793.7915362436954</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2091,107 +2047,37 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>1357.915384615385</v>
+        <v>2861.1</v>
       </c>
       <c r="D13">
-        <v>0.112582448398471</v>
+        <v>0.3666693062507451</v>
       </c>
       <c r="E13">
-        <v>152.8774387179514</v>
+        <v>1049.077552114007</v>
       </c>
       <c r="F13">
-        <v>0.8584936775155422</v>
+        <v>0.5168045651851666</v>
       </c>
       <c r="G13">
-        <v>1165.761772293394</v>
+        <v>1478.62954145128</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.06306542781760052</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>180.4364955289369</v>
       </c>
       <c r="J13">
-        <v>0.02892387408598686</v>
+        <v>0.05346070074648779</v>
       </c>
       <c r="K13">
-        <v>39.2761736040398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>4685.030769230771</v>
-      </c>
-      <c r="D14">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="E14">
-        <v>527.4522348221719</v>
-      </c>
-      <c r="F14">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="G14">
-        <v>4022.069294350394</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.02892387408598686</v>
-      </c>
-      <c r="K14">
-        <v>135.509240058205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>1166.376923076923</v>
-      </c>
-      <c r="D15">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="E15">
-        <v>131.313569755475</v>
-      </c>
-      <c r="F15">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="G15">
-        <v>1001.32721406157</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.02892387408598686</v>
-      </c>
-      <c r="K15">
-        <v>33.73613925987771</v>
+        <v>152.9564109057762</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2087,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2244,212 +2130,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>10223.23846153846</v>
+        <v>5112.553846153846</v>
       </c>
       <c r="D2">
-        <v>0.2304031860173474</v>
+        <v>0.3202038642640018</v>
       </c>
       <c r="E2">
-        <v>2355.466712953547</v>
+        <v>1637.059497796246</v>
       </c>
       <c r="F2">
-        <v>0.4969275497660341</v>
+        <v>0.6089976789828835</v>
       </c>
       <c r="G2">
-        <v>5080.208839366188</v>
+        <v>3113.533425982706</v>
       </c>
       <c r="H2">
-        <v>0.2726692642166184</v>
+        <v>0.06801939348145869</v>
       </c>
       <c r="I2">
-        <v>2787.562909218726</v>
+        <v>347.7528117566835</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.002779063271655956</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>4654.626923076923</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>4654.626923076923</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>4216.915384615385</v>
-      </c>
-      <c r="D4">
-        <v>0.7820095700217157</v>
-      </c>
-      <c r="E4">
-        <v>3297.668186741035</v>
-      </c>
-      <c r="F4">
-        <v>0.2179904299782842</v>
-      </c>
-      <c r="G4">
-        <v>919.2471978743495</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>3924.242307692308</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3924.242307692308</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>3515.953846153846</v>
-      </c>
-      <c r="D6">
-        <v>0.233279274036484</v>
-      </c>
-      <c r="E6">
-        <v>820.199160776553</v>
-      </c>
-      <c r="F6">
-        <v>0.7667207259635161</v>
-      </c>
-      <c r="G6">
-        <v>2695.754685377294</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>5112.553846153846</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>5112.553846153846</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>14.20811061820955</v>
       </c>
     </row>
   </sheetData>
